--- a/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD01_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>536102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>521354</v>
+        <v>523671</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>546996</v>
+        <v>548106</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9282473217192</v>
+        <v>0.9282473217192002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9027124063370398</v>
+        <v>0.9067243018067159</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9471101022085838</v>
+        <v>0.9490330060963973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1350</v>
@@ -762,19 +762,19 @@
         <v>771574</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>759755</v>
+        <v>759002</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>780763</v>
+        <v>781584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9419358285106891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9275082303514141</v>
+        <v>0.9265890959148471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9531545931094897</v>
+        <v>0.9541562474078129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1998</v>
@@ -783,19 +783,19 @@
         <v>1307675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1290570</v>
+        <v>1289869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1323384</v>
+        <v>1323493</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9362754797547679</v>
+        <v>0.9362754797547675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9240285446314201</v>
+        <v>0.9235263812404251</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9475227043455017</v>
+        <v>0.9476003856149604</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>41440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30546</v>
+        <v>29436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56188</v>
+        <v>53871</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07175267828079983</v>
+        <v>0.07175267828079984</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05288989779141656</v>
+        <v>0.05096699390360288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0972875936629604</v>
+        <v>0.09327569819328388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -833,19 +833,19 @@
         <v>47562</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38373</v>
+        <v>37552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59381</v>
+        <v>60134</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05806417148931092</v>
+        <v>0.05806417148931091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04684540689051025</v>
+        <v>0.04584375259218723</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07249176964858589</v>
+        <v>0.07341090408515298</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -854,19 +854,19 @@
         <v>89003</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73294</v>
+        <v>73185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106108</v>
+        <v>106809</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06372452024523231</v>
+        <v>0.06372452024523233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05247729565449903</v>
+        <v>0.05239961438503954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0759714553685798</v>
+        <v>0.07647361875957499</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>2062702</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2029650</v>
+        <v>2029013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2088405</v>
+        <v>2088164</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9307487167299372</v>
+        <v>0.9307487167299374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9158348275754888</v>
+        <v>0.9155474617349075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9423468113351546</v>
+        <v>0.9422377010297643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2761</v>
@@ -979,19 +979,19 @@
         <v>2038900</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2017869</v>
+        <v>2017675</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2059548</v>
+        <v>2061007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9409789083195103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.931273075143868</v>
+        <v>0.9311832027484859</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9505084824239541</v>
+        <v>0.951181633611961</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4626</v>
@@ -1000,19 +1000,19 @@
         <v>4101602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4061105</v>
+        <v>4060760</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4137242</v>
+        <v>4136001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9358061732646645</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9265665388841061</v>
+        <v>0.9264878852489258</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9439377346353524</v>
+        <v>0.9436545468590041</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>153473</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>127770</v>
+        <v>128011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>186525</v>
+        <v>187162</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06925128327006284</v>
+        <v>0.06925128327006286</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05765318866484546</v>
+        <v>0.05776229897023576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08416517242451156</v>
+        <v>0.08445253826509257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>155</v>
@@ -1050,19 +1050,19 @@
         <v>127886</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>107238</v>
+        <v>105779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>148917</v>
+        <v>149111</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.05902109168048956</v>
+        <v>0.05902109168048954</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04949151757604575</v>
+        <v>0.04881836638803913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06872692485613213</v>
+        <v>0.06881679725151425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>273</v>
@@ -1071,19 +1071,19 @@
         <v>281359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>245719</v>
+        <v>246960</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>321856</v>
+        <v>322201</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06419382673533557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05606226536464703</v>
+        <v>0.05634545314099593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07343346111589411</v>
+        <v>0.07351211475107519</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>688924</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>677326</v>
+        <v>676975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>697813</v>
+        <v>696770</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9707370364621716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9543941331013597</v>
+        <v>0.9538999915953679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9832612733112627</v>
+        <v>0.9817927353533893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>971</v>
@@ -1196,19 +1196,19 @@
         <v>707155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>694968</v>
+        <v>693505</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>716078</v>
+        <v>715831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9622762208643704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9456935642003932</v>
+        <v>0.9437017627833665</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9744193325152758</v>
+        <v>0.9740823781405762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1632</v>
@@ -1217,19 +1217,19 @@
         <v>1396079</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1380040</v>
+        <v>1378980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1409512</v>
+        <v>1410594</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9664328723333362</v>
+        <v>0.9664328723333361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9553296335435975</v>
+        <v>0.954595860277705</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9757319582920385</v>
+        <v>0.9764805838178685</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>20768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11879</v>
+        <v>12922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32366</v>
+        <v>32717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02926296353782831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01673872668873704</v>
+        <v>0.0182072646466105</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04560586689863994</v>
+        <v>0.04610000840463158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1267,19 +1267,19 @@
         <v>27722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18799</v>
+        <v>19046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39909</v>
+        <v>41372</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03772377913562943</v>
+        <v>0.03772377913562944</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02558066748472415</v>
+        <v>0.02591762185942384</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05430643579960737</v>
+        <v>0.0562982372166336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>51</v>
@@ -1288,19 +1288,19 @@
         <v>48490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35057</v>
+        <v>33975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64529</v>
+        <v>65589</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03356712766666385</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02426804170796141</v>
+        <v>0.02351941618213154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04467036645640284</v>
+        <v>0.04540413972229479</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3287728</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3253132</v>
+        <v>3249619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3321909</v>
+        <v>3318233</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9384368612972477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9285618197575993</v>
+        <v>0.9275591939409364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9481933094555245</v>
+        <v>0.9471439531921556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5082</v>
@@ -1413,19 +1413,19 @@
         <v>3517629</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3491145</v>
+        <v>3486981</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3543307</v>
+        <v>3540927</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9453959051108397</v>
+        <v>0.9453959051108395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9382780366130951</v>
+        <v>0.937158879934883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9522971328713397</v>
+        <v>0.9516574468215607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8256</v>
@@ -1434,19 +1434,19 @@
         <v>6805356</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6760111</v>
+        <v>6761676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6844417</v>
+        <v>6846077</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9420210890680198</v>
+        <v>0.9420210890680197</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9357580174874229</v>
+        <v>0.9359746681662934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9474280517854261</v>
+        <v>0.9476578546958282</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>215681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181500</v>
+        <v>185176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250277</v>
+        <v>253790</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0615631387027523</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05180669054447528</v>
+        <v>0.05285604680784451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07143818024240071</v>
+        <v>0.07244080605906367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -1484,19 +1484,19 @@
         <v>203171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>177493</v>
+        <v>179873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>229655</v>
+        <v>233819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05460409488916039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04770286712866025</v>
+        <v>0.04834255317843931</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06172196338690543</v>
+        <v>0.06284112006511693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>442</v>
@@ -1505,19 +1505,19 @@
         <v>418852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>379791</v>
+        <v>378131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>464097</v>
+        <v>462532</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05797891093198015</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0525719482145739</v>
+        <v>0.05234214530417176</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06424198251257716</v>
+        <v>0.06402533183370702</v>
       </c>
     </row>
     <row r="15">
